--- a/with logs for unschedule with saturday sunday/excel_schedules/genetic_best_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/genetic_best_schedule.xlsx
@@ -520,9 +520,16 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>DP 438 - Photography Techniques
-3E
-Room 238</t>
+          <t>CS 427 - Climate Science
+3D
+Room 267</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>MA 324 - Mathematics
+2A
+Room 134</t>
         </is>
       </c>
     </row>
@@ -533,11 +540,12 @@
         </is>
       </c>
       <c r="B3" s="2" t="n"/>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>QP 426 - Quantum Physics
-3D
-Room 221</t>
+      <c r="D3" s="2" t="n"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>CA 403 - Computer Architecture
+3A
+Room 300</t>
         </is>
       </c>
     </row>
@@ -548,7 +556,22 @@
         </is>
       </c>
       <c r="B4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>CN 321 - Networking
+2A
+Room 137</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>IT 326 - IOT Applications
+2A
+Room 310</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -557,15 +580,94 @@
         </is>
       </c>
       <c r="B5" s="2" t="n"/>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>ACAD 408 - Advanced CAD
-3B
-Room 184</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="D5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>DM 406 - Discrete Mathematics
+3A
+Room 201</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>CN 405 - Computer Networks
+3A
+Room 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>ETH 437 - Ethics
+3E
+Room 237</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>OS 404 - Operating Systems
 3A
@@ -573,142 +675,51 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>AL 400 - Algorithms
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>ST 407 - Software Testing
 3A
-Room 117</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+Room 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>CA 439 - Cultural Anthropology
 3E
 Room 240</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>IT 402 - Advanced Programming
-3A
-Room 115</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>IT 402 - Advanced Programming
-3A
-Room 180</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>DS 401 - Data Structures
-3A
-Room 181</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>IT 326 - IOT Applications
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>IT 323 - Web Development
 2A
-Room 11, 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>MB 205 - Microbiology
-2D
-Room 170</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
+Room 135</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>MT 414 - Manufacturing
+3B
+Room 188</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -717,16 +728,9 @@
         </is>
       </c>
       <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>BC 308 - Business Communication
-2C
-Room 150</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -736,16 +740,14 @@
       </c>
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>ACH 424 - Advanced Chemistry
-3D
-Room 9</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>PH 320 - Physics
+2A
+Room 138</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -756,7 +758,14 @@
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="n"/>
       <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>EN 322 - English
+2A
+Room 136</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -768,6 +777,7 @@
       <c r="C18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -776,9 +786,9 @@
         </is>
       </c>
       <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -795,23 +805,23 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SE 429 - Seismology
-3D
-Room 224</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>OS 404 - Operating Systems
+          <t>AR 432 - Art Criticism
+3E
+Room 228</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>EL 316 - Electronics
+2B
+Room 73</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>ST 407 - Software Testing
 3A
-Room 199</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>BA 418 - Business Analytics
-3C
-Room 213</t>
+Room 202</t>
         </is>
       </c>
     </row>
@@ -822,15 +832,29 @@
         </is>
       </c>
       <c r="B22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>DS 401 - Data Structures
 3A
 Room 116</t>
         </is>
       </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>IT 323 - Web Development
+2A
+Room 15</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>AL 400 - Algorithms
+3A
+Room 182</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -839,6 +863,7 @@
         </is>
       </c>
       <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -850,22 +875,16 @@
         </is>
       </c>
       <c r="B24" s="2" t="n"/>
+      <c r="C24" s="2" t="n"/>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>CN 405 - Computer Networks
+          <t>IT 402 - Advanced Programming
 3A
-Room 77</t>
+Room 180</t>
         </is>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>IT 326 - IOT Applications
-2A
-Room 132</t>
-        </is>
-      </c>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -874,10 +893,10 @@
         </is>
       </c>
       <c r="B25" s="2" t="n"/>
+      <c r="C25" s="2" t="n"/>
       <c r="D25" s="2" t="n"/>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -887,7 +906,6 @@
       </c>
       <c r="B26" s="2" t="n"/>
       <c r="D26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -897,49 +915,57 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="50">
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="E15:E19"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C22:C24"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B15:B19"/>
     <mergeCell ref="D24:D26"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="E21:E25"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B3:B7"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="E16:E19"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/genetic_best_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/genetic_best_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="26">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,144 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA07A"/>
+        <bgColor rgb="00FFA07A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020B2AA"/>
+        <bgColor rgb="0020B2AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009370DB"/>
+        <bgColor rgb="009370DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F08080"/>
+        <bgColor rgb="00F08080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0FFFF"/>
+        <bgColor rgb="00E0FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE4E1"/>
+        <bgColor rgb="00FFE4E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0E0E6"/>
+        <bgColor rgb="00B0E0E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6347"/>
+        <bgColor rgb="00FF6347"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004682B4"/>
+        <bgColor rgb="004682B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2B48C"/>
+        <bgColor rgb="00D2B48C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009ACD32"/>
+        <bgColor rgb="009ACD32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0040E0D0"/>
+        <bgColor rgb="0040E0D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF69B4"/>
+        <bgColor rgb="00FF69B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CD5C5C"/>
+        <bgColor rgb="00CD5C5C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000CED1"/>
+        <bgColor rgb="0000CED1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001E90FF"/>
+        <bgColor rgb="001E90FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B22222"/>
+        <bgColor rgb="00B22222"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7F50"/>
+        <bgColor rgb="00FF7F50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006A5ACD"/>
+        <bgColor rgb="006A5ACD"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +217,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,18 +719,44 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>CS 427 - Climate Science
-3D
-Room 267</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>MA 324 - Mathematics
-2A
-Room 134</t>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>A1 GE LITE - Living in the IT Era
+1A
+Room 304
+Emp: 6</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>A1 GE LITE - Living in the IT Era
+1A
+Room 305
+Emp: 6</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>A1 IS 316 - IS/IT Security Management
+3A
+Room 208
+Emp: 10</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>A1 GE LITE - Living in the IT Era
+1B
+Room 305
+Emp: 6</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>B1 ITE 111 - Introduction to Computing
+1B
+Room 303
+Emp: 5</t>
         </is>
       </c>
     </row>
@@ -539,15 +766,11 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>CA 403 - Computer Architecture
-3A
-Room 300</t>
-        </is>
-      </c>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="5" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -555,23 +778,11 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>CN 321 - Networking
-2A
-Room 137</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>IT 326 - IOT Applications
-2A
-Room 310</t>
-        </is>
-      </c>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="5" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -579,11 +790,31 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>A1 GE LITE - Living in the IT Era
+1B
+Room 303
+Emp: 6</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 112 - Fundamentals of Programming
+1B
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>B1 ITE 111 - Introduction to Computing
+1B
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n"/>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -591,18 +822,25 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>DM 406 - Discrete Mathematics
-3A
-Room 201</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>A1 ITE 111 - Introduction to Computing
+1A
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>A1 ITE 111 - Introduction to Computing
+1A
+Room 305
+Emp: 5</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -610,9 +848,11 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="8" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -620,15 +860,9 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>CN 405 - Computer Networks
-3A
-Room 200</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="8" t="n"/>
+      <c r="F8" s="8" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -636,9 +870,7 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="F9" s="8" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -660,18 +892,44 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>ETH 437 - Ethics
-3E
-Room 237</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>OS 404 - Operating Systems
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>A2 IS 314 - Web Based Programming and Application
 3A
-Room 118</t>
+Room 310
+Emp: 8</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>B2 ITE 112 - Fundamentals of Programming
+1B
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>B2 ITE 111 - Introduction to Computing
+1B
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>IS 314 - IS Innovations and New Technologies
+3A
+Room 304
+Emp: 4</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>A2 IS 314 - Web Based Programming and Application
+3A
+Room 208
+Emp: 8</t>
         </is>
       </c>
     </row>
@@ -681,15 +939,11 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>ST 407 - Software Testing
-3A
-Room 78</t>
-        </is>
-      </c>
+      <c r="B13" s="9" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="11" t="n"/>
+      <c r="E13" s="12" t="n"/>
+      <c r="F13" s="9" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -697,29 +951,11 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>CA 439 - Cultural Anthropology
-3E
-Room 240</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>IT 323 - Web Development
-2A
-Room 135</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>MT 414 - Manufacturing
-3B
-Room 188</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n"/>
+      <c r="B14" s="9" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="12" t="n"/>
+      <c r="F14" s="9" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -727,10 +963,46 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 112 - Fundamentals of Programming
+1B
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="C15" s="13" t="inlineStr">
+        <is>
+          <t>A1 ITE 112 - Fundamentals of Programming
+1A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>B1 ITE 111 - Introduction to Computing
+1B
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E15" s="14" t="inlineStr">
+        <is>
+          <t>A1 IS 314 - Web Based Programming and Application
+3A
+Room 208
+Emp: 8</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="inlineStr">
+        <is>
+          <t>A2 IS 316 - IS/IT Security Management
+3A
+Room 208
+Emp: 10</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -738,16 +1010,11 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>PH 320 - Physics
-2A
-Room 138</t>
-        </is>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="17" t="n"/>
+      <c r="E16" s="18" t="n"/>
+      <c r="F16" s="19" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -755,17 +1022,11 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>EN 322 - English
-2A
-Room 136</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="20" t="n"/>
+      <c r="E17" s="18" t="n"/>
+      <c r="F17" s="19" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -773,11 +1034,10 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
+      <c r="C18" s="16" t="n"/>
+      <c r="D18" s="20" t="n"/>
+      <c r="E18" s="18" t="n"/>
+      <c r="F18" s="19" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -785,10 +1045,8 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
+      <c r="D19" s="20" t="n"/>
+      <c r="F19" s="19" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -803,25 +1061,44 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>AR 432 - Art Criticism
-3E
-Room 228</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>EL 316 - Electronics
-2B
-Room 73</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>ST 407 - Software Testing
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>IS 113 - IS/IT Service Management
+1B
+Room 305
+Emp: 7</t>
+        </is>
+      </c>
+      <c r="C21" s="14" t="inlineStr">
+        <is>
+          <t>A1 IS 314 - Web Based Programming and Application
 3A
-Room 202</t>
+Room 303
+Emp: 8</t>
+        </is>
+      </c>
+      <c r="D21" s="13" t="inlineStr">
+        <is>
+          <t>A1 ITE 112 - Fundamentals of Programming
+1A
+Room 305
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 112 - Fundamentals of Programming
+1B
+Room 305
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="F21" s="22" t="inlineStr">
+        <is>
+          <t>IS 412 - IS Strategy, Management &amp; Acquisition
+4A
+Room 305
+Emp: 5</t>
         </is>
       </c>
     </row>
@@ -831,30 +1108,11 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>DS 401 - Data Structures
-3A
-Room 116</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>IT 323 - Web Development
-2A
-Room 15</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>AL 400 - Algorithms
-3A
-Room 182</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="n"/>
+      <c r="B22" s="21" t="n"/>
+      <c r="C22" s="14" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="6" t="n"/>
+      <c r="F22" s="22" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -862,11 +1120,11 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
+      <c r="B23" s="21" t="n"/>
+      <c r="C23" s="14" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="6" t="n"/>
+      <c r="F23" s="22" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -874,17 +1132,25 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n"/>
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>IT 402 - Advanced Programming
-3A
-Room 180</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
+      <c r="B24" s="21" t="inlineStr">
+        <is>
+          <t>IS 113 - IS/IT Service Management
+1B
+Room 303
+Emp: 7</t>
+        </is>
+      </c>
+      <c r="C24" s="17" t="n"/>
+      <c r="D24" s="23" t="n"/>
+      <c r="E24" s="23" t="n"/>
+      <c r="F24" s="21" t="inlineStr">
+        <is>
+          <t>IS 113 - IS/IT Service Management
+1A
+Room 305
+Emp: 7</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -892,11 +1158,11 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="B25" s="21" t="n"/>
+      <c r="C25" s="17" t="n"/>
+      <c r="D25" s="23" t="n"/>
+      <c r="E25" s="23" t="n"/>
+      <c r="F25" s="21" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -904,8 +1170,11 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
+      <c r="B26" s="21" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="23" t="n"/>
+      <c r="E26" s="23" t="n"/>
+      <c r="F26" s="21" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -915,57 +1184,42 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C22:C24"/>
+  <mergeCells count="35">
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="D21:D24"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B15:B19"/>
     <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B2:B5"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="E24:E26"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F21:F23"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
